--- a/datasets/coefficient.xlsx
+++ b/datasets/coefficient.xlsx
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.401077400711146</v>
+        <v>2.401077400711147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>94.85290319807272</v>
+        <v>94.85290319807268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-6157.73869420677</v>
+        <v>-6157.738694206808</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-18523.08069969692</v>
+        <v>-18523.08069969687</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3833.720665383359</v>
+        <v>3833.720665383364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-7293.765027416123</v>
+        <v>-7293.765027416147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4603.408276329875</v>
+        <v>4603.408276329822</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-4107.329263447077</v>
+        <v>-4107.32926344713</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-1017.136612149377</v>
+        <v>-1017.136612149378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-4457.728944077056</v>
+        <v>-4457.72894407707</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-350.777239756531</v>
+        <v>-350.7772397565287</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-7635.176572824527</v>
+        <v>-7635.176572824519</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-5830.494953065374</v>
+        <v>-5830.49495306536</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -601,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-17398.5636275979</v>
+        <v>-17398.56362759788</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-6183.587254901957</v>
+        <v>-6183.587254901947</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5669.644092191737</v>
+        <v>5669.644092191722</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>2198.885116017504</v>
+        <v>2198.885116017506</v>
       </c>
     </row>
   </sheetData>
